--- a/public/templates/UW_SurveyProgram_Import.xlsx
+++ b/public/templates/UW_SurveyProgram_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\almeida\repos\MARE\UVC-api\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC292C-B2B1-4C88-BD52-EF99A41763EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF842B81-D77A-4785-92F3-151147E81CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="DIVE_SITE_METADATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>SAMPLE#</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Locality</t>
   </si>
   <si>
-    <t>L#</t>
-  </si>
-  <si>
     <t>Site</t>
   </si>
   <si>
-    <t>Site#</t>
-  </si>
-  <si>
     <t>Daily_Dive#</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>Functions:</t>
-  </si>
-  <si>
     <t>[FUNCTION_A]</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Phylum</t>
   </si>
   <si>
-    <t>Indicators:</t>
-  </si>
-  <si>
     <t>[INDICATOR_A]</t>
   </si>
   <si>
@@ -154,6 +142,21 @@
   </si>
   <si>
     <t>Ntotal</t>
+  </si>
+  <si>
+    <t>Locality Code</t>
+  </si>
+  <si>
+    <t>Site Code</t>
+  </si>
+  <si>
+    <t>Surveyed area</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Functions</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,9 +587,9 @@
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -607,70 +610,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -703,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +731,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,25 +743,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +774,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,30 +785,34 @@
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +828,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,25 +843,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/UW_SurveyProgram_Import.xlsx
+++ b/public/templates/UW_SurveyProgram_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\almeida\repos\MARE\UVC-api\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalal\Desktop\MARE\Underwater Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF842B81-D77A-4785-92F3-151147E81CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC52B4B-8891-4101-A3AE-E0B529AA1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
+    <workbookView xWindow="1875" yWindow="4800" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="DIVE_SITE_METADATA" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>######</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
   <si>
     <t>SAMPLE#</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>Locality</t>
   </si>
   <si>
@@ -75,88 +84,82 @@
     <t>Heading</t>
   </si>
   <si>
+    <t>SITE AREA</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>FUNCTION_C</t>
+  </si>
+  <si>
+    <t>FUNCTION_A</t>
+  </si>
+  <si>
+    <t>FUNCTION_B</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
     <t>P##</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>SUBSTRATE</t>
+  </si>
+  <si>
+    <t>taxa</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>FUNCTIONS:</t>
+  </si>
+  <si>
+    <t>INDICATORS:</t>
+  </si>
+  <si>
+    <t>INDICATOR_A</t>
+  </si>
+  <si>
+    <t>INDICATOR_B</t>
+  </si>
+  <si>
+    <t>survey type</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>ntotal</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>size category</t>
+  </si>
+  <si>
+    <t>Locality Code</t>
+  </si>
+  <si>
+    <t>Site Code</t>
   </si>
   <si>
     <t>Depth category</t>
   </si>
   <si>
-    <t>Heading Direction</t>
-  </si>
-  <si>
-    <t>Site area</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>[FUNCTION_A]</t>
-  </si>
-  <si>
-    <t>[FUNCTION_B]</t>
-  </si>
-  <si>
-    <t>[FUNCTION_C]</t>
-  </si>
-  <si>
-    <t>Substrate</t>
-  </si>
-  <si>
-    <t>Taxa</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>Phylum</t>
-  </si>
-  <si>
-    <t>[INDICATOR_A]</t>
-  </si>
-  <si>
-    <t>[INDICATOR_B]</t>
-  </si>
-  <si>
-    <t>Survey Type</t>
-  </si>
-  <si>
-    <t>Size Category</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Ntotal</t>
-  </si>
-  <si>
-    <t>Locality Code</t>
-  </si>
-  <si>
-    <t>Site Code</t>
-  </si>
-  <si>
-    <t>Surveyed area</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Functions</t>
+    <t>heading direction</t>
   </si>
 </sst>
 </file>
@@ -576,104 +579,109 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +697,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,16 +705,16 @@
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -715,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -728,40 +736,43 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -774,45 +785,44 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -825,43 +835,47 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/UW_SurveyProgram_Import.xlsx
+++ b/public/templates/UW_SurveyProgram_Import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalal\Desktop\MARE\Underwater Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC52B4B-8891-4101-A3AE-E0B529AA1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E63B19C-B814-41CA-A4FE-996AB5E038C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4800" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{13F33F4D-E77F-4168-A6AC-0D4C829D8FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="DIVE_SITE_METADATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>######</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>heading direction</t>
+  </si>
+  <si>
+    <t>surveyed area</t>
   </si>
 </sst>
 </file>
@@ -738,7 +741,7 @@
   </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -785,24 +788,24 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -813,15 +816,18 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
